--- a/services/opengsync-app/static/resources/templates/library_prep/SMARTSEQ.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/SMARTSEQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cemmat-my.sharepoint.com/personal/hriegler_cemm_at/Documents/Documents/GitHub/limbless-app/services/limbless-app/static/resources/templates/library_prep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriegler\Documents\limbless-app\services\opengsync-app\static\resources\templates\library_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{20134356-98F2-1144-A368-CD0ACE66660A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACDC3188-362B-49DC-9785-033E66760D37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296842E6-A386-418B-9C5D-EADF95F006F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
@@ -1777,21 +1777,174 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1801,15 +1954,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1828,9 +1972,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1848,147 +1989,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2305,6 +2305,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2312,7 +2313,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5300,7 +5300,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -10221,8 +10221,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AK145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="26.25" customHeight="1"/>
@@ -10259,40 +10259,40 @@
   <sheetData>
     <row r="1" spans="1:37" ht="26.25" customHeight="1">
       <c r="B1" s="4"/>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:37" ht="30" customHeight="1">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
       <c r="K3" s="5" t="s">
         <v>41</v>
       </c>
@@ -10301,84 +10301,82 @@
       <c r="N3" s="131"/>
     </row>
     <row r="4" spans="1:37" ht="25.5" customHeight="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="J4" s="159" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="J4" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="160"/>
+      <c r="K4" s="105"/>
       <c r="L4" s="6"/>
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="1:37" ht="25.5" customHeight="1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
       <c r="AK5" s="7"/>
     </row>
     <row r="6" spans="1:37" ht="24.6" customHeight="1">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
     </row>
     <row r="7" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="173"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
     </row>
     <row r="9" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="86">
-        <v>12</v>
-      </c>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="8" t="b">
         <f>MOD(E9,12)=0</f>
         <v>1</v>
       </c>
       <c r="G9" s="8">
         <f>ROUNDDOWN((E9/12),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <f>E9-G9*12</f>
@@ -10423,38 +10421,30 @@
       <c r="L10" s="87">
         <v>12</v>
       </c>
-      <c r="M10" s="157" t="s">
+      <c r="M10" s="129" t="s">
         <v>143</v>
       </c>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
     </row>
     <row r="11" spans="1:37" ht="17.45" customHeight="1">
       <c r="A11" s="90"/>
       <c r="B11" s="90"/>
-      <c r="C11" s="90">
-        <v>3</v>
-      </c>
-      <c r="D11" s="90">
-        <v>3</v>
-      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="90"/>
       <c r="F11" s="90"/>
-      <c r="G11" s="90">
-        <v>3</v>
-      </c>
-      <c r="H11" s="90">
-        <v>3</v>
-      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="90"/>
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
       <c r="L11" s="90"/>
-      <c r="M11" s="108" t="s">
+      <c r="M11" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
     </row>
     <row r="12" spans="1:37" ht="26.25" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
@@ -10522,7 +10512,7 @@
       </c>
       <c r="F15" s="42" t="str">
         <f>CONCATENATE(" Volume for ",$E$9, " samples")</f>
-        <v xml:space="preserve"> Volume for 12 samples</v>
+        <v xml:space="preserve"> Volume for  samples</v>
       </c>
       <c r="O15" s="17"/>
       <c r="Q15" s="14"/>
@@ -10549,7 +10539,7 @@
       </c>
       <c r="F16" s="71">
         <f>E16*$E$9/40</f>
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>18</v>
@@ -10579,7 +10569,7 @@
       </c>
       <c r="F17" s="71">
         <f>E17*$E$9/40</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>18</v>
@@ -10609,7 +10599,7 @@
       </c>
       <c r="F18" s="72">
         <f>E18*$E$9/40</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>18</v>
@@ -10638,7 +10628,7 @@
       </c>
       <c r="F19" s="71">
         <f>SUM(F16:F18)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>18</v>
@@ -10711,11 +10701,11 @@
       </c>
       <c r="C22" s="88">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="D22" s="88">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="E22" s="88">
         <f t="shared" si="0"/>
@@ -10727,11 +10717,11 @@
       </c>
       <c r="G22" s="88">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="H22" s="88">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="I22" s="88">
         <f t="shared" si="0"/>
@@ -10773,7 +10763,7 @@
       </c>
       <c r="F24" s="42" t="str">
         <f>CONCATENATE(" Volume for ",$E$9, " samples")</f>
-        <v xml:space="preserve"> Volume for 12 samples</v>
+        <v xml:space="preserve"> Volume for  samples</v>
       </c>
       <c r="O24" s="17"/>
     </row>
@@ -10808,7 +10798,7 @@
       </c>
       <c r="F26" s="73">
         <f t="shared" ref="F26:F27" si="1">E26*$E$9*1.1</f>
-        <v>13.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>18</v>
@@ -10827,7 +10817,7 @@
       </c>
       <c r="F27" s="74">
         <f t="shared" si="1"/>
-        <v>13.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G27" s="44" t="s">
         <v>18</v>
@@ -10844,7 +10834,7 @@
       </c>
       <c r="F28" s="73">
         <f>SUM(F26:F27)</f>
-        <v>26.400000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>18</v>
@@ -10884,7 +10874,7 @@
       <c r="A31" s="10"/>
       <c r="B31" s="2" t="str">
         <f>IF(F9=TRUE,CONCATENATE("Prepare Mastermix (RT) according to the following table and pipet ",FIXED($E$9*E43/12)," µL into each well of row B of MM plate"),CONCATENATE("Prepare Mastermix (RT) according to the following table and pipet ",FIXED(($G$9+1)*E43*1.1)," µL into first ",$H$9," wells and ",FIXED(($G$9)*E43*1.1)," µL into the other wells of MM plate row B"))</f>
-        <v>Prepare Mastermix (RT) according to the following table and pipet 5.70 µL into each well of row B of MM plate</v>
+        <v>Prepare Mastermix (RT) according to the following table and pipet 0.00 µL into each well of row B of MM plate</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -10941,11 +10931,11 @@
       </c>
       <c r="C33" s="88">
         <f t="shared" si="2"/>
-        <v>18.809999999999999</v>
+        <v>0</v>
       </c>
       <c r="D33" s="88">
         <f t="shared" si="2"/>
-        <v>18.809999999999999</v>
+        <v>0</v>
       </c>
       <c r="E33" s="88">
         <f t="shared" si="2"/>
@@ -10957,11 +10947,11 @@
       </c>
       <c r="G33" s="88">
         <f t="shared" si="2"/>
-        <v>18.809999999999999</v>
+        <v>0</v>
       </c>
       <c r="H33" s="88">
         <f t="shared" si="2"/>
-        <v>18.809999999999999</v>
+        <v>0</v>
       </c>
       <c r="I33" s="88">
         <f t="shared" si="2"/>
@@ -10992,22 +10982,22 @@
       </c>
       <c r="F34" s="42" t="str">
         <f>CONCATENATE(" Volume for ", E9, " samples")</f>
-        <v xml:space="preserve"> Volume for 12 samples</v>
+        <v xml:space="preserve"> Volume for  samples</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="24.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="144" t="s">
+      <c r="C35" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="144"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="19">
         <v>2</v>
       </c>
       <c r="F35" s="75">
         <f t="shared" ref="F35:F41" si="3">E35*$E$9*1.1</f>
-        <v>26.400000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>18</v>
@@ -11016,16 +11006,16 @@
     <row r="36" spans="1:13" ht="24.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="144" t="s">
+      <c r="C36" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="144"/>
+      <c r="D36" s="147"/>
       <c r="E36" s="19">
         <v>0.1</v>
       </c>
       <c r="F36" s="75">
         <f t="shared" si="3"/>
-        <v>1.3200000000000003</v>
+        <v>0</v>
       </c>
       <c r="G36" s="43" t="s">
         <v>18</v>
@@ -11034,16 +11024,16 @@
     <row r="37" spans="1:13" ht="24.75" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="144" t="s">
+      <c r="C37" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="144"/>
+      <c r="D37" s="147"/>
       <c r="E37" s="19">
         <v>2</v>
       </c>
       <c r="F37" s="75">
         <f t="shared" si="3"/>
-        <v>26.400000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>18</v>
@@ -11052,16 +11042,16 @@
     <row r="38" spans="1:13" ht="24.75" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="144"/>
+      <c r="D38" s="147"/>
       <c r="E38" s="19">
         <v>0.06</v>
       </c>
       <c r="F38" s="75">
         <f t="shared" si="3"/>
-        <v>0.79200000000000004</v>
+        <v>0</v>
       </c>
       <c r="G38" s="43" t="s">
         <v>18</v>
@@ -11070,16 +11060,16 @@
     <row r="39" spans="1:13" ht="24.75" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="144" t="s">
+      <c r="C39" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="144"/>
+      <c r="D39" s="147"/>
       <c r="E39" s="19">
         <v>0.5</v>
       </c>
       <c r="F39" s="75">
         <f t="shared" si="3"/>
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="G39" s="43" t="s">
         <v>18</v>
@@ -11088,16 +11078,16 @@
     <row r="40" spans="1:13" ht="24.75" customHeight="1" thickBot="1">
       <c r="A40" s="11"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="145"/>
+      <c r="D40" s="148"/>
       <c r="E40" s="22">
         <v>0.28999999999999998</v>
       </c>
       <c r="F40" s="76">
         <f t="shared" ref="F40" si="4">E40*$E$9*1.1</f>
-        <v>3.8279999999999998</v>
+        <v>0</v>
       </c>
       <c r="G40" s="46" t="s">
         <v>18</v>
@@ -11109,16 +11099,16 @@
     <row r="41" spans="1:13" ht="24.75" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="146"/>
+      <c r="D41" s="149"/>
       <c r="E41" s="27">
         <v>0.25</v>
       </c>
       <c r="F41" s="77">
         <f t="shared" si="3"/>
-        <v>3.3000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>18</v>
@@ -11127,16 +11117,16 @@
     <row r="42" spans="1:13" ht="24.75" customHeight="1" thickBot="1">
       <c r="A42" s="11"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="147" t="s">
+      <c r="C42" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="147"/>
+      <c r="D42" s="150"/>
       <c r="E42" s="22">
         <v>0.5</v>
       </c>
       <c r="F42" s="76">
         <f>E42*$E$9*1.1</f>
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="G42" s="46" t="s">
         <v>18</v>
@@ -11151,7 +11141,7 @@
       </c>
       <c r="F43" s="77">
         <f>SUM(F35:F42)</f>
-        <v>75.239999999999995</v>
+        <v>0</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>18</v>
@@ -11175,7 +11165,7 @@
       <c r="F45" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="111" t="s">
+      <c r="G45" s="135" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11185,7 +11175,7 @@
       <c r="F46" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="113"/>
+      <c r="G46" s="136"/>
     </row>
     <row r="47" spans="1:13" ht="26.25" customHeight="1">
       <c r="A47"/>
@@ -11204,20 +11194,20 @@
       <c r="G48"/>
     </row>
     <row r="49" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B49" s="135" t="s">
+      <c r="B49" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="136"/>
-      <c r="M49" s="137"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="139"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="139"/>
+      <c r="M49" s="140"/>
     </row>
     <row r="50" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A50" s="10"/>
@@ -11402,20 +11392,20 @@
     </row>
     <row r="60" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A60"/>
-      <c r="B60" s="141" t="s">
+      <c r="B60" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="142"/>
-      <c r="I60" s="142"/>
-      <c r="J60" s="142"/>
-      <c r="K60" s="142"/>
-      <c r="L60" s="142"/>
-      <c r="M60" s="143"/>
+      <c r="C60" s="145"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="145"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="145"/>
+      <c r="J60" s="145"/>
+      <c r="K60" s="145"/>
+      <c r="L60" s="145"/>
+      <c r="M60" s="146"/>
     </row>
     <row r="61" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A61" s="10"/>
@@ -11503,7 +11493,7 @@
       <c r="A66" s="10"/>
       <c r="B66" s="2" t="str">
         <f>IF($F$9=TRUE,CONCATENATE("Prepare Mastermix (PCR) according to the following table and pipet ",FIXED($E$9*E71/12*1.1)," µL into each well of row C of MM plate"),CONCATENATE("Prepare Mastermix (PCR) according to the following table and pipet ",FIXED(($G$9+1)*E71*1.1)," µL into first ",$H$9," wells and ",FIXED(($G$9)*E71*1.1)," µL into the other wells of MM plate row C"))</f>
-        <v>Prepare Mastermix (PCR) according to the following table and pipet 16.50 µL into each well of row C of MM plate</v>
+        <v>Prepare Mastermix (PCR) according to the following table and pipet 0.00 µL into each well of row C of MM plate</v>
       </c>
       <c r="D66" s="29"/>
     </row>
@@ -11516,7 +11506,7 @@
       </c>
       <c r="F67" s="42" t="str">
         <f>CONCATENATE(" Volume for ", $E$9, " samples")</f>
-        <v xml:space="preserve"> Volume for 12 samples</v>
+        <v xml:space="preserve"> Volume for  samples</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75">
@@ -11530,7 +11520,7 @@
       </c>
       <c r="F68" s="75">
         <f t="shared" ref="F68:F70" si="5">E68*$E$9*1.1</f>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="G68" s="65" t="s">
         <v>18</v>
@@ -11547,7 +11537,7 @@
       </c>
       <c r="F69" s="75">
         <f t="shared" si="5"/>
-        <v>3.3000000000000003</v>
+        <v>0</v>
       </c>
       <c r="G69" s="43" t="s">
         <v>18</v>
@@ -11564,7 +11554,7 @@
       </c>
       <c r="F70" s="76">
         <f t="shared" si="5"/>
-        <v>29.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="G70" s="46" t="s">
         <v>18</v>
@@ -11580,7 +11570,7 @@
       </c>
       <c r="F71" s="77">
         <f>SUM(F68:F70)</f>
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>18</v>
@@ -11608,7 +11598,7 @@
       <c r="D73" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="111" t="s">
+      <c r="E73" s="135" t="s">
         <v>63</v>
       </c>
       <c r="I73" s="54" t="s">
@@ -11624,7 +11614,7 @@
       <c r="D74" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="112"/>
+      <c r="E74" s="137"/>
       <c r="I74" s="54" t="s">
         <v>150</v>
       </c>
@@ -11638,7 +11628,7 @@
       <c r="D75" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E75" s="113"/>
+      <c r="E75" s="136"/>
       <c r="I75" s="54" t="s">
         <v>152</v>
       </c>
@@ -11668,54 +11658,54 @@
     </row>
     <row r="78" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="A78" s="30"/>
-      <c r="B78" s="151" t="s">
+      <c r="B78" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="152"/>
-      <c r="D78" s="152"/>
-      <c r="E78" s="152"/>
-      <c r="F78" s="152"/>
-      <c r="G78" s="152"/>
-      <c r="H78" s="152"/>
-      <c r="I78" s="152"/>
-      <c r="J78" s="152"/>
-      <c r="K78" s="152"/>
-      <c r="L78" s="152"/>
-      <c r="M78" s="153"/>
+      <c r="C78" s="124"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="124"/>
+      <c r="K78" s="124"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="125"/>
     </row>
     <row r="79" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="A79" s="35"/>
-      <c r="B79" s="126" t="s">
+      <c r="B79" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
-      <c r="E79" s="118"/>
-      <c r="F79" s="118"/>
-      <c r="G79" s="118"/>
-      <c r="H79" s="118"/>
-      <c r="I79" s="118"/>
-      <c r="J79" s="118"/>
-      <c r="K79" s="118"/>
-      <c r="L79" s="118"/>
-      <c r="M79" s="119"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
+      <c r="E79" s="166"/>
+      <c r="F79" s="166"/>
+      <c r="G79" s="166"/>
+      <c r="H79" s="166"/>
+      <c r="I79" s="166"/>
+      <c r="J79" s="166"/>
+      <c r="K79" s="166"/>
+      <c r="L79" s="166"/>
+      <c r="M79" s="167"/>
     </row>
     <row r="80" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="A80" s="11"/>
-      <c r="B80" s="154" t="s">
+      <c r="B80" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="155"/>
-      <c r="D80" s="155"/>
-      <c r="E80" s="155"/>
-      <c r="F80" s="155"/>
-      <c r="G80" s="155"/>
-      <c r="H80" s="155"/>
-      <c r="I80" s="155"/>
-      <c r="J80" s="155"/>
-      <c r="K80" s="155"/>
-      <c r="L80" s="155"/>
-      <c r="M80" s="156"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="127"/>
+      <c r="E80" s="127"/>
+      <c r="F80" s="127"/>
+      <c r="G80" s="127"/>
+      <c r="H80" s="127"/>
+      <c r="I80" s="127"/>
+      <c r="J80" s="127"/>
+      <c r="K80" s="127"/>
+      <c r="L80" s="127"/>
+      <c r="M80" s="128"/>
     </row>
     <row r="81" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="A81" s="10"/>
@@ -11727,7 +11717,7 @@
       <c r="A82" s="10"/>
       <c r="B82" s="2" t="str">
         <f>IF($F$9=TRUE,CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED($E$9*E88/12*1.1)," µL into each well of row D of MM plate"),CONCATENATE("Prepare Mastermix (F) according to the following table and pipet ",FIXED(($G$9+1)*E88*1.1)," µL into first ",$H$9," wells and ",FIXED(($G$9)*E88*1.1)," µL into the other wells of MM plate row D"))</f>
-        <v>Prepare Mastermix (F) according to the following table and pipet 6.60 µL into each well of row D of MM plate</v>
+        <v>Prepare Mastermix (F) according to the following table and pipet 0.00 µL into each well of row D of MM plate</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="30" customHeight="1">
@@ -11737,21 +11727,21 @@
       </c>
       <c r="F83" s="42" t="str">
         <f>CONCATENATE(" Volume for ", $E$9, " samples")</f>
-        <v xml:space="preserve"> Volume for 12 samples</v>
+        <v xml:space="preserve"> Volume for  samples</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="23.45" customHeight="1">
       <c r="A84" s="11"/>
-      <c r="C84" s="120" t="s">
+      <c r="C84" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="120"/>
+      <c r="D84" s="119"/>
       <c r="E84" s="19">
         <v>0.2</v>
       </c>
       <c r="F84" s="75">
         <f t="shared" ref="F84:F87" si="6">E84*$E$9*1.1</f>
-        <v>2.6400000000000006</v>
+        <v>0</v>
       </c>
       <c r="G84" s="43" t="s">
         <v>18</v>
@@ -11759,16 +11749,16 @@
     </row>
     <row r="85" spans="1:13" ht="26.25" customHeight="1">
       <c r="A85" s="11"/>
-      <c r="C85" s="120" t="s">
+      <c r="C85" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="D85" s="120"/>
+      <c r="D85" s="119"/>
       <c r="E85" s="19">
         <v>1.8</v>
       </c>
       <c r="F85" s="75">
         <f t="shared" si="6"/>
-        <v>23.760000000000005</v>
+        <v>0</v>
       </c>
       <c r="G85" s="43" t="s">
         <v>18</v>
@@ -11776,32 +11766,32 @@
     </row>
     <row r="86" spans="1:13" ht="23.25" customHeight="1">
       <c r="A86" s="11"/>
-      <c r="C86" s="120" t="s">
+      <c r="C86" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="120"/>
+      <c r="D86" s="119"/>
       <c r="E86" s="19">
         <v>2</v>
       </c>
       <c r="F86" s="75">
         <f t="shared" si="6"/>
-        <v>26.400000000000002</v>
+        <v>0</v>
       </c>
       <c r="G86" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="24.75" customHeight="1" thickBot="1">
-      <c r="C87" s="121" t="s">
+      <c r="C87" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="122"/>
+      <c r="D87" s="169"/>
       <c r="E87" s="22">
         <v>2</v>
       </c>
       <c r="F87" s="76">
         <f t="shared" si="6"/>
-        <v>26.400000000000002</v>
+        <v>0</v>
       </c>
       <c r="G87" s="46" t="s">
         <v>18</v>
@@ -11817,7 +11807,7 @@
       </c>
       <c r="F88" s="77">
         <f>SUM(F84:F87)</f>
-        <v>79.200000000000017</v>
+        <v>0</v>
       </c>
       <c r="G88" s="45" t="s">
         <v>18</v>
@@ -11844,7 +11834,7 @@
       <c r="A91" s="10"/>
       <c r="B91" s="2" t="str">
         <f>IF($F$9=TRUE,CONCATENATE("Pipet ",FIXED($E$9*2.5/12*1.1)," µL of 0.2% SDS into each well of row E of MM plate"),CONCATENATE("Pipet ",FIXED(($G$9+1)*2.5*1.1)," µL of 0.2% SDS into first ",$H$9," wells and ",FIXED(($G$9)*2.5*1.1)," µL into the other wells of MM plate row E"))</f>
-        <v>Pipet 2.75 µL of 0.2% SDS into each well of row E of MM plate</v>
+        <v>Pipet 0.00 µL of 0.2% SDS into each well of row E of MM plate</v>
       </c>
       <c r="F91" s="37"/>
     </row>
@@ -11872,26 +11862,26 @@
     </row>
     <row r="95" spans="1:13" ht="24.95" customHeight="1" thickBot="1">
       <c r="A95" s="11"/>
-      <c r="B95" s="123" t="s">
+      <c r="B95" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="C95" s="124"/>
-      <c r="D95" s="124"/>
-      <c r="E95" s="124"/>
-      <c r="F95" s="124"/>
-      <c r="G95" s="124"/>
-      <c r="H95" s="124"/>
-      <c r="I95" s="124"/>
-      <c r="J95" s="124"/>
-      <c r="K95" s="124"/>
-      <c r="L95" s="124"/>
-      <c r="M95" s="125"/>
+      <c r="C95" s="171"/>
+      <c r="D95" s="171"/>
+      <c r="E95" s="171"/>
+      <c r="F95" s="171"/>
+      <c r="G95" s="171"/>
+      <c r="H95" s="171"/>
+      <c r="I95" s="171"/>
+      <c r="J95" s="171"/>
+      <c r="K95" s="171"/>
+      <c r="L95" s="171"/>
+      <c r="M95" s="172"/>
     </row>
     <row r="96" spans="1:13" ht="24.95" customHeight="1" thickBot="1">
       <c r="A96" s="10"/>
       <c r="B96" s="2" t="str">
         <f>IF($F$9=TRUE,CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED(E9*20/12*1.1)," µL of P into each well of row F of MM plate"),CONCATENATE("Prepare Mastermix (P) according to the following table and pipet ",FIXED((G9+1)*20*1.1)," µL of P into first ",H9," wells and ",FIXED((G9)*(20)*1.1)," µL into the other wells of MM plate row F"))</f>
-        <v>Prepare Mastermix (P) according to the following table and pipet 22.00 µL of P into each well of row F of MM plate</v>
+        <v>Prepare Mastermix (P) according to the following table and pipet 0.00 µL of P into each well of row F of MM plate</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="49" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
@@ -11909,7 +11899,7 @@
       </c>
       <c r="F98" s="42" t="str">
         <f>CONCATENATE(" Volume for ", $E$9, " samples")</f>
-        <v xml:space="preserve"> Volume for 12 samples</v>
+        <v xml:space="preserve"> Volume for  samples</v>
       </c>
       <c r="G98" s="49"/>
     </row>
@@ -11953,7 +11943,7 @@
       </c>
       <c r="F101" s="96">
         <f>E101*$E$9*1.1</f>
-        <v>231.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="G101" s="97" t="s">
         <v>18</v>
@@ -11969,7 +11959,7 @@
       </c>
       <c r="F102" s="98">
         <f t="shared" ref="F102" si="7">E102*$E$9*1.1</f>
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G102" s="99" t="s">
         <v>18</v>
@@ -11984,7 +11974,7 @@
       </c>
       <c r="F103" s="96">
         <f>F101+F102</f>
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="G103" s="101" t="s">
         <v>18</v>
@@ -12487,7 +12477,7 @@
       <c r="F116" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="G116" s="111" t="s">
+      <c r="G116" s="135" t="s">
         <v>80</v>
       </c>
     </row>
@@ -12496,14 +12486,14 @@
       <c r="F117" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="G117" s="112"/>
+      <c r="G117" s="137"/>
     </row>
     <row r="118" spans="1:14" ht="26.25" customHeight="1">
       <c r="A118" s="11"/>
       <c r="F118" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="G118" s="113"/>
+      <c r="G118" s="136"/>
     </row>
     <row r="119" spans="1:14" ht="26.25" customHeight="1">
       <c r="A119" s="11"/>
@@ -12521,37 +12511,37 @@
     </row>
     <row r="121" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A121" s="10"/>
-      <c r="B121" s="114" t="s">
+      <c r="B121" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="C121" s="115"/>
-      <c r="D121" s="115"/>
-      <c r="E121" s="115"/>
-      <c r="F121" s="115"/>
-      <c r="G121" s="115"/>
-      <c r="H121" s="115"/>
-      <c r="I121" s="115"/>
-      <c r="J121" s="115"/>
-      <c r="K121" s="115"/>
-      <c r="L121" s="115"/>
-      <c r="M121" s="116"/>
+      <c r="C121" s="163"/>
+      <c r="D121" s="163"/>
+      <c r="E121" s="163"/>
+      <c r="F121" s="163"/>
+      <c r="G121" s="163"/>
+      <c r="H121" s="163"/>
+      <c r="I121" s="163"/>
+      <c r="J121" s="163"/>
+      <c r="K121" s="163"/>
+      <c r="L121" s="163"/>
+      <c r="M121" s="164"/>
     </row>
     <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A122" s="35"/>
-      <c r="B122" s="117" t="s">
+      <c r="B122" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="C122" s="118"/>
-      <c r="D122" s="118"/>
-      <c r="E122" s="118"/>
-      <c r="F122" s="118"/>
-      <c r="G122" s="118"/>
-      <c r="H122" s="118"/>
-      <c r="I122" s="118"/>
-      <c r="J122" s="118"/>
-      <c r="K122" s="118"/>
-      <c r="L122" s="118"/>
-      <c r="M122" s="119"/>
+      <c r="C122" s="166"/>
+      <c r="D122" s="166"/>
+      <c r="E122" s="166"/>
+      <c r="F122" s="166"/>
+      <c r="G122" s="166"/>
+      <c r="H122" s="166"/>
+      <c r="I122" s="166"/>
+      <c r="J122" s="166"/>
+      <c r="K122" s="166"/>
+      <c r="L122" s="166"/>
+      <c r="M122" s="167"/>
     </row>
     <row r="123" spans="1:14" ht="26.25" customHeight="1">
       <c r="B123" s="3" t="s">
@@ -13026,157 +13016,166 @@
       <c r="B133" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="E133" s="110" t="s">
+      <c r="E133" s="161" t="s">
         <v>136</v>
       </c>
-      <c r="F133" s="110"/>
+      <c r="F133" s="161"/>
       <c r="G133" s="81" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="26.1" customHeight="1">
-      <c r="E134" s="109" t="s">
+      <c r="E134" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="F134" s="109"/>
+      <c r="F134" s="160"/>
       <c r="G134" s="82" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="E135" s="109" t="s">
+      <c r="E135" s="160" t="s">
         <v>142</v>
       </c>
-      <c r="F135" s="109"/>
+      <c r="F135" s="160"/>
       <c r="G135" s="82" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="25.5" customHeight="1">
-      <c r="C138" s="104" t="s">
+      <c r="C138" s="158" t="s">
         <v>29</v>
       </c>
-      <c r="D138" s="104"/>
-      <c r="E138" s="104"/>
-      <c r="F138" s="105" t="s">
+      <c r="D138" s="158"/>
+      <c r="E138" s="158"/>
+      <c r="F138" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="G138" s="106"/>
-      <c r="H138" s="106"/>
-      <c r="I138" s="107"/>
+      <c r="G138" s="152"/>
+      <c r="H138" s="152"/>
+      <c r="I138" s="153"/>
     </row>
     <row r="139" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C139" s="103" t="s">
+      <c r="C139" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="103"/>
-      <c r="E139" s="103"/>
-      <c r="F139" s="105" t="s">
+      <c r="D139" s="157"/>
+      <c r="E139" s="157"/>
+      <c r="F139" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="G139" s="106"/>
-      <c r="H139" s="106"/>
-      <c r="I139" s="107"/>
+      <c r="G139" s="152"/>
+      <c r="H139" s="152"/>
+      <c r="I139" s="153"/>
     </row>
     <row r="140" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C140" s="103" t="s">
+      <c r="C140" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="D140" s="103"/>
-      <c r="E140" s="103"/>
-      <c r="F140" s="105" t="s">
+      <c r="D140" s="157"/>
+      <c r="E140" s="157"/>
+      <c r="F140" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="G140" s="106"/>
-      <c r="H140" s="106"/>
-      <c r="I140" s="107"/>
+      <c r="G140" s="152"/>
+      <c r="H140" s="152"/>
+      <c r="I140" s="153"/>
     </row>
     <row r="141" spans="1:14" ht="51.75" customHeight="1">
-      <c r="C141" s="105" t="s">
+      <c r="C141" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="106"/>
-      <c r="E141" s="107"/>
-      <c r="F141" s="105" t="s">
+      <c r="D141" s="152"/>
+      <c r="E141" s="153"/>
+      <c r="F141" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="G141" s="106"/>
-      <c r="H141" s="106"/>
-      <c r="I141" s="107"/>
+      <c r="G141" s="152"/>
+      <c r="H141" s="152"/>
+      <c r="I141" s="153"/>
     </row>
     <row r="142" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C142" s="105" t="s">
+      <c r="C142" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="D142" s="106"/>
-      <c r="E142" s="107"/>
-      <c r="F142" s="105" t="s">
+      <c r="D142" s="152"/>
+      <c r="E142" s="153"/>
+      <c r="F142" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="G142" s="106"/>
-      <c r="H142" s="106"/>
-      <c r="I142" s="107"/>
+      <c r="G142" s="152"/>
+      <c r="H142" s="152"/>
+      <c r="I142" s="153"/>
     </row>
     <row r="143" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C143" s="105" t="s">
+      <c r="C143" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="D143" s="106"/>
-      <c r="E143" s="107"/>
-      <c r="F143" s="105" t="s">
+      <c r="D143" s="152"/>
+      <c r="E143" s="153"/>
+      <c r="F143" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="G143" s="106"/>
-      <c r="H143" s="106"/>
-      <c r="I143" s="107"/>
+      <c r="G143" s="152"/>
+      <c r="H143" s="152"/>
+      <c r="I143" s="153"/>
     </row>
     <row r="144" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C144" s="105" t="s">
+      <c r="C144" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="106"/>
-      <c r="E144" s="107"/>
-      <c r="F144" s="105">
+      <c r="D144" s="152"/>
+      <c r="E144" s="153"/>
+      <c r="F144" s="151">
         <v>20250304</v>
       </c>
-      <c r="G144" s="106"/>
-      <c r="H144" s="106"/>
-      <c r="I144" s="107"/>
+      <c r="G144" s="152"/>
+      <c r="H144" s="152"/>
+      <c r="I144" s="153"/>
     </row>
     <row r="145" spans="3:9" ht="26.25" customHeight="1">
-      <c r="C145" s="105" t="s">
+      <c r="C145" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="D145" s="106"/>
-      <c r="E145" s="107"/>
-      <c r="F145" s="127">
+      <c r="D145" s="152"/>
+      <c r="E145" s="153"/>
+      <c r="F145" s="154">
         <v>20250304</v>
       </c>
-      <c r="G145" s="128"/>
-      <c r="H145" s="128"/>
-      <c r="I145" s="129"/>
+      <c r="G145" s="155"/>
+      <c r="H145" s="155"/>
+      <c r="I145" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B78:M78"/>
-    <mergeCell ref="B80:M80"/>
-    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G116:G118"/>
+    <mergeCell ref="B121:M121"/>
+    <mergeCell ref="B122:M122"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="B95:M95"/>
+    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="F145:I145"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="F143:I143"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="G45:G46"/>
@@ -13193,34 +13192,25 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="F145:I145"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="F142:I142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="F143:I143"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G116:G118"/>
-    <mergeCell ref="B121:M121"/>
-    <mergeCell ref="B122:M122"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="B95:M95"/>
-    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B78:M78"/>
+    <mergeCell ref="B80:M80"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="R13:AC18">

--- a/services/opengsync-app/static/resources/templates/library_prep/SMARTSEQ.xlsx
+++ b/services/opengsync-app/static/resources/templates/library_prep/SMARTSEQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hriegler\Documents\limbless-app\services\opengsync-app\static\resources\templates\library_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296842E6-A386-418B-9C5D-EADF95F006F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947E178-8CA4-49F5-922C-CFBFDBD3D081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B38823E2-9AAF-4849-A302-784C5AB9E0F5}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_table" sheetId="27" r:id="rId1"/>
@@ -1777,6 +1777,171 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1824,171 +1989,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5300,8 +5300,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -10208,9 +10208,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Sample Name" prompt="Informative sample identifier provided by submitter. Only use letters, numbers or underscores [A-Za-z0-9_], no other characters, please." sqref="Q2:Q97 C2:L97" xr:uid="{1AC929B1-A893-48F1-9054-83779C80E086}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10221,7 +10218,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AK145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -10259,40 +10256,40 @@
   <sheetData>
     <row r="1" spans="1:37" ht="26.25" customHeight="1">
       <c r="B1" s="4"/>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:37" ht="30" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
       <c r="K3" s="5" t="s">
         <v>41</v>
       </c>
@@ -10301,74 +10298,74 @@
       <c r="N3" s="131"/>
     </row>
     <row r="4" spans="1:37" ht="25.5" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="J4" s="104" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="J4" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="105"/>
+      <c r="K4" s="160"/>
       <c r="L4" s="6"/>
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="1:37" ht="25.5" customHeight="1">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
       <c r="AK5" s="7"/>
     </row>
     <row r="6" spans="1:37" ht="24.6" customHeight="1">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
     </row>
     <row r="7" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
     </row>
     <row r="8" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="173"/>
     </row>
     <row r="9" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
       <c r="E9" s="86"/>
       <c r="F9" s="8" t="b">
         <f>MOD(E9,12)=0</f>
@@ -10421,11 +10418,11 @@
       <c r="L10" s="87">
         <v>12</v>
       </c>
-      <c r="M10" s="129" t="s">
+      <c r="M10" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="N10" s="129"/>
-      <c r="O10" s="129"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
     </row>
     <row r="11" spans="1:37" ht="17.45" customHeight="1">
       <c r="A11" s="90"/>
@@ -10440,11 +10437,11 @@
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
       <c r="L11" s="90"/>
-      <c r="M11" s="159" t="s">
+      <c r="M11" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
     </row>
     <row r="12" spans="1:37" ht="26.25" customHeight="1" thickBot="1">
       <c r="A12" s="11"/>
@@ -10988,10 +10985,10 @@
     <row r="35" spans="1:13" ht="24.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="147" t="s">
+      <c r="C35" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="147"/>
+      <c r="D35" s="144"/>
       <c r="E35" s="19">
         <v>2</v>
       </c>
@@ -11006,10 +11003,10 @@
     <row r="36" spans="1:13" ht="24.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="147" t="s">
+      <c r="C36" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="147"/>
+      <c r="D36" s="144"/>
       <c r="E36" s="19">
         <v>0.1</v>
       </c>
@@ -11024,10 +11021,10 @@
     <row r="37" spans="1:13" ht="24.75" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="147" t="s">
+      <c r="C37" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="147"/>
+      <c r="D37" s="144"/>
       <c r="E37" s="19">
         <v>2</v>
       </c>
@@ -11042,10 +11039,10 @@
     <row r="38" spans="1:13" ht="24.75" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="147" t="s">
+      <c r="C38" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="147"/>
+      <c r="D38" s="144"/>
       <c r="E38" s="19">
         <v>0.06</v>
       </c>
@@ -11060,10 +11057,10 @@
     <row r="39" spans="1:13" ht="24.75" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="147" t="s">
+      <c r="C39" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="147"/>
+      <c r="D39" s="144"/>
       <c r="E39" s="19">
         <v>0.5</v>
       </c>
@@ -11078,10 +11075,10 @@
     <row r="40" spans="1:13" ht="24.75" customHeight="1" thickBot="1">
       <c r="A40" s="11"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="148" t="s">
+      <c r="C40" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="148"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="22">
         <v>0.28999999999999998</v>
       </c>
@@ -11099,10 +11096,10 @@
     <row r="41" spans="1:13" ht="24.75" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="149" t="s">
+      <c r="C41" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="149"/>
+      <c r="D41" s="146"/>
       <c r="E41" s="27">
         <v>0.25</v>
       </c>
@@ -11117,10 +11114,10 @@
     <row r="42" spans="1:13" ht="24.75" customHeight="1" thickBot="1">
       <c r="A42" s="11"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="150" t="s">
+      <c r="C42" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="150"/>
+      <c r="D42" s="147"/>
       <c r="E42" s="22">
         <v>0.5</v>
       </c>
@@ -11165,7 +11162,7 @@
       <c r="F45" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="135" t="s">
+      <c r="G45" s="111" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11175,7 +11172,7 @@
       <c r="F46" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="136"/>
+      <c r="G46" s="113"/>
     </row>
     <row r="47" spans="1:13" ht="26.25" customHeight="1">
       <c r="A47"/>
@@ -11194,20 +11191,20 @@
       <c r="G48"/>
     </row>
     <row r="49" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B49" s="138" t="s">
+      <c r="B49" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="139"/>
-      <c r="L49" s="139"/>
-      <c r="M49" s="140"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="137"/>
     </row>
     <row r="50" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A50" s="10"/>
@@ -11392,20 +11389,20 @@
     </row>
     <row r="60" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A60"/>
-      <c r="B60" s="144" t="s">
+      <c r="B60" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="145"/>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="145"/>
-      <c r="G60" s="145"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="145"/>
-      <c r="K60" s="145"/>
-      <c r="L60" s="145"/>
-      <c r="M60" s="146"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="142"/>
+      <c r="L60" s="142"/>
+      <c r="M60" s="143"/>
     </row>
     <row r="61" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A61" s="10"/>
@@ -11598,7 +11595,7 @@
       <c r="D73" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E73" s="135" t="s">
+      <c r="E73" s="111" t="s">
         <v>63</v>
       </c>
       <c r="I73" s="54" t="s">
@@ -11614,7 +11611,7 @@
       <c r="D74" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="137"/>
+      <c r="E74" s="112"/>
       <c r="I74" s="54" t="s">
         <v>150</v>
       </c>
@@ -11628,7 +11625,7 @@
       <c r="D75" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E75" s="136"/>
+      <c r="E75" s="113"/>
       <c r="I75" s="54" t="s">
         <v>152</v>
       </c>
@@ -11658,54 +11655,54 @@
     </row>
     <row r="78" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="A78" s="30"/>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
-      <c r="L78" s="124"/>
-      <c r="M78" s="125"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="152"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="152"/>
+      <c r="G78" s="152"/>
+      <c r="H78" s="152"/>
+      <c r="I78" s="152"/>
+      <c r="J78" s="152"/>
+      <c r="K78" s="152"/>
+      <c r="L78" s="152"/>
+      <c r="M78" s="153"/>
     </row>
     <row r="79" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="A79" s="35"/>
-      <c r="B79" s="173" t="s">
+      <c r="B79" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="166"/>
-      <c r="D79" s="166"/>
-      <c r="E79" s="166"/>
-      <c r="F79" s="166"/>
-      <c r="G79" s="166"/>
-      <c r="H79" s="166"/>
-      <c r="I79" s="166"/>
-      <c r="J79" s="166"/>
-      <c r="K79" s="166"/>
-      <c r="L79" s="166"/>
-      <c r="M79" s="167"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="118"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="118"/>
+      <c r="K79" s="118"/>
+      <c r="L79" s="118"/>
+      <c r="M79" s="119"/>
     </row>
     <row r="80" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="A80" s="11"/>
-      <c r="B80" s="126" t="s">
+      <c r="B80" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="127"/>
-      <c r="D80" s="127"/>
-      <c r="E80" s="127"/>
-      <c r="F80" s="127"/>
-      <c r="G80" s="127"/>
-      <c r="H80" s="127"/>
-      <c r="I80" s="127"/>
-      <c r="J80" s="127"/>
-      <c r="K80" s="127"/>
-      <c r="L80" s="127"/>
-      <c r="M80" s="128"/>
+      <c r="C80" s="155"/>
+      <c r="D80" s="155"/>
+      <c r="E80" s="155"/>
+      <c r="F80" s="155"/>
+      <c r="G80" s="155"/>
+      <c r="H80" s="155"/>
+      <c r="I80" s="155"/>
+      <c r="J80" s="155"/>
+      <c r="K80" s="155"/>
+      <c r="L80" s="155"/>
+      <c r="M80" s="156"/>
     </row>
     <row r="81" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
       <c r="A81" s="10"/>
@@ -11732,10 +11729,10 @@
     </row>
     <row r="84" spans="1:13" ht="23.45" customHeight="1">
       <c r="A84" s="11"/>
-      <c r="C84" s="119" t="s">
+      <c r="C84" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="119"/>
+      <c r="D84" s="120"/>
       <c r="E84" s="19">
         <v>0.2</v>
       </c>
@@ -11749,10 +11746,10 @@
     </row>
     <row r="85" spans="1:13" ht="26.25" customHeight="1">
       <c r="A85" s="11"/>
-      <c r="C85" s="119" t="s">
+      <c r="C85" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D85" s="119"/>
+      <c r="D85" s="120"/>
       <c r="E85" s="19">
         <v>1.8</v>
       </c>
@@ -11766,10 +11763,10 @@
     </row>
     <row r="86" spans="1:13" ht="23.25" customHeight="1">
       <c r="A86" s="11"/>
-      <c r="C86" s="119" t="s">
+      <c r="C86" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="D86" s="119"/>
+      <c r="D86" s="120"/>
       <c r="E86" s="19">
         <v>2</v>
       </c>
@@ -11782,10 +11779,10 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="24.75" customHeight="1" thickBot="1">
-      <c r="C87" s="168" t="s">
+      <c r="C87" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="169"/>
+      <c r="D87" s="122"/>
       <c r="E87" s="22">
         <v>2</v>
       </c>
@@ -11862,20 +11859,20 @@
     </row>
     <row r="95" spans="1:13" ht="24.95" customHeight="1" thickBot="1">
       <c r="A95" s="11"/>
-      <c r="B95" s="170" t="s">
+      <c r="B95" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="C95" s="171"/>
-      <c r="D95" s="171"/>
-      <c r="E95" s="171"/>
-      <c r="F95" s="171"/>
-      <c r="G95" s="171"/>
-      <c r="H95" s="171"/>
-      <c r="I95" s="171"/>
-      <c r="J95" s="171"/>
-      <c r="K95" s="171"/>
-      <c r="L95" s="171"/>
-      <c r="M95" s="172"/>
+      <c r="C95" s="124"/>
+      <c r="D95" s="124"/>
+      <c r="E95" s="124"/>
+      <c r="F95" s="124"/>
+      <c r="G95" s="124"/>
+      <c r="H95" s="124"/>
+      <c r="I95" s="124"/>
+      <c r="J95" s="124"/>
+      <c r="K95" s="124"/>
+      <c r="L95" s="124"/>
+      <c r="M95" s="125"/>
     </row>
     <row r="96" spans="1:13" ht="24.95" customHeight="1" thickBot="1">
       <c r="A96" s="10"/>
@@ -12477,7 +12474,7 @@
       <c r="F116" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="G116" s="135" t="s">
+      <c r="G116" s="111" t="s">
         <v>80</v>
       </c>
     </row>
@@ -12486,14 +12483,14 @@
       <c r="F117" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="G117" s="137"/>
+      <c r="G117" s="112"/>
     </row>
     <row r="118" spans="1:14" ht="26.25" customHeight="1">
       <c r="A118" s="11"/>
       <c r="F118" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="G118" s="136"/>
+      <c r="G118" s="113"/>
     </row>
     <row r="119" spans="1:14" ht="26.25" customHeight="1">
       <c r="A119" s="11"/>
@@ -12511,37 +12508,37 @@
     </row>
     <row r="121" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A121" s="10"/>
-      <c r="B121" s="162" t="s">
+      <c r="B121" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="C121" s="163"/>
-      <c r="D121" s="163"/>
-      <c r="E121" s="163"/>
-      <c r="F121" s="163"/>
-      <c r="G121" s="163"/>
-      <c r="H121" s="163"/>
-      <c r="I121" s="163"/>
-      <c r="J121" s="163"/>
-      <c r="K121" s="163"/>
-      <c r="L121" s="163"/>
-      <c r="M121" s="164"/>
+      <c r="C121" s="115"/>
+      <c r="D121" s="115"/>
+      <c r="E121" s="115"/>
+      <c r="F121" s="115"/>
+      <c r="G121" s="115"/>
+      <c r="H121" s="115"/>
+      <c r="I121" s="115"/>
+      <c r="J121" s="115"/>
+      <c r="K121" s="115"/>
+      <c r="L121" s="115"/>
+      <c r="M121" s="116"/>
     </row>
     <row r="122" spans="1:14" ht="26.25" customHeight="1" thickBot="1">
       <c r="A122" s="35"/>
-      <c r="B122" s="165" t="s">
+      <c r="B122" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="C122" s="166"/>
-      <c r="D122" s="166"/>
-      <c r="E122" s="166"/>
-      <c r="F122" s="166"/>
-      <c r="G122" s="166"/>
-      <c r="H122" s="166"/>
-      <c r="I122" s="166"/>
-      <c r="J122" s="166"/>
-      <c r="K122" s="166"/>
-      <c r="L122" s="166"/>
-      <c r="M122" s="167"/>
+      <c r="C122" s="118"/>
+      <c r="D122" s="118"/>
+      <c r="E122" s="118"/>
+      <c r="F122" s="118"/>
+      <c r="G122" s="118"/>
+      <c r="H122" s="118"/>
+      <c r="I122" s="118"/>
+      <c r="J122" s="118"/>
+      <c r="K122" s="118"/>
+      <c r="L122" s="118"/>
+      <c r="M122" s="119"/>
     </row>
     <row r="123" spans="1:14" ht="26.25" customHeight="1">
       <c r="B123" s="3" t="s">
@@ -13016,138 +13013,185 @@
       <c r="B133" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="E133" s="161" t="s">
+      <c r="E133" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="F133" s="161"/>
+      <c r="F133" s="110"/>
       <c r="G133" s="81" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="26.1" customHeight="1">
-      <c r="E134" s="160" t="s">
+      <c r="E134" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="F134" s="160"/>
+      <c r="F134" s="109"/>
       <c r="G134" s="82" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="E135" s="160" t="s">
+      <c r="E135" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="F135" s="160"/>
+      <c r="F135" s="109"/>
       <c r="G135" s="82" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="25.5" customHeight="1">
-      <c r="C138" s="158" t="s">
+      <c r="C138" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D138" s="158"/>
-      <c r="E138" s="158"/>
-      <c r="F138" s="151" t="s">
+      <c r="D138" s="104"/>
+      <c r="E138" s="104"/>
+      <c r="F138" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="G138" s="152"/>
-      <c r="H138" s="152"/>
-      <c r="I138" s="153"/>
+      <c r="G138" s="106"/>
+      <c r="H138" s="106"/>
+      <c r="I138" s="107"/>
     </row>
     <row r="139" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C139" s="157" t="s">
+      <c r="C139" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="157"/>
-      <c r="E139" s="157"/>
-      <c r="F139" s="151" t="s">
+      <c r="D139" s="103"/>
+      <c r="E139" s="103"/>
+      <c r="F139" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="G139" s="152"/>
-      <c r="H139" s="152"/>
-      <c r="I139" s="153"/>
+      <c r="G139" s="106"/>
+      <c r="H139" s="106"/>
+      <c r="I139" s="107"/>
     </row>
     <row r="140" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C140" s="157" t="s">
+      <c r="C140" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="D140" s="157"/>
-      <c r="E140" s="157"/>
-      <c r="F140" s="151" t="s">
+      <c r="D140" s="103"/>
+      <c r="E140" s="103"/>
+      <c r="F140" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="G140" s="152"/>
-      <c r="H140" s="152"/>
-      <c r="I140" s="153"/>
+      <c r="G140" s="106"/>
+      <c r="H140" s="106"/>
+      <c r="I140" s="107"/>
     </row>
     <row r="141" spans="1:14" ht="51.75" customHeight="1">
-      <c r="C141" s="151" t="s">
+      <c r="C141" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="152"/>
-      <c r="E141" s="153"/>
-      <c r="F141" s="151" t="s">
+      <c r="D141" s="106"/>
+      <c r="E141" s="107"/>
+      <c r="F141" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="G141" s="152"/>
-      <c r="H141" s="152"/>
-      <c r="I141" s="153"/>
+      <c r="G141" s="106"/>
+      <c r="H141" s="106"/>
+      <c r="I141" s="107"/>
     </row>
     <row r="142" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C142" s="151" t="s">
+      <c r="C142" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D142" s="152"/>
-      <c r="E142" s="153"/>
-      <c r="F142" s="151" t="s">
+      <c r="D142" s="106"/>
+      <c r="E142" s="107"/>
+      <c r="F142" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="G142" s="152"/>
-      <c r="H142" s="152"/>
-      <c r="I142" s="153"/>
+      <c r="G142" s="106"/>
+      <c r="H142" s="106"/>
+      <c r="I142" s="107"/>
     </row>
     <row r="143" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C143" s="151" t="s">
+      <c r="C143" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D143" s="152"/>
-      <c r="E143" s="153"/>
-      <c r="F143" s="151" t="s">
+      <c r="D143" s="106"/>
+      <c r="E143" s="107"/>
+      <c r="F143" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="G143" s="152"/>
-      <c r="H143" s="152"/>
-      <c r="I143" s="153"/>
+      <c r="G143" s="106"/>
+      <c r="H143" s="106"/>
+      <c r="I143" s="107"/>
     </row>
     <row r="144" spans="1:14" ht="26.25" customHeight="1">
-      <c r="C144" s="151" t="s">
+      <c r="C144" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="152"/>
-      <c r="E144" s="153"/>
-      <c r="F144" s="151">
+      <c r="D144" s="106"/>
+      <c r="E144" s="107"/>
+      <c r="F144" s="105">
         <v>20250304</v>
       </c>
-      <c r="G144" s="152"/>
-      <c r="H144" s="152"/>
-      <c r="I144" s="153"/>
+      <c r="G144" s="106"/>
+      <c r="H144" s="106"/>
+      <c r="I144" s="107"/>
     </row>
     <row r="145" spans="3:9" ht="26.25" customHeight="1">
-      <c r="C145" s="151" t="s">
+      <c r="C145" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="D145" s="152"/>
-      <c r="E145" s="153"/>
-      <c r="F145" s="154">
+      <c r="D145" s="106"/>
+      <c r="E145" s="107"/>
+      <c r="F145" s="127">
         <v>20250304</v>
       </c>
-      <c r="G145" s="155"/>
-      <c r="H145" s="155"/>
-      <c r="I145" s="156"/>
+      <c r="G145" s="128"/>
+      <c r="H145" s="128"/>
+      <c r="I145" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B78:M78"/>
+    <mergeCell ref="B80:M80"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B60:M60"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="F145:I145"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="F143:I143"/>
     <mergeCell ref="C139:E139"/>
     <mergeCell ref="C138:E138"/>
     <mergeCell ref="F139:I139"/>
@@ -13164,53 +13208,6 @@
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="B95:M95"/>
     <mergeCell ref="B79:M79"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="F145:I145"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="F142:I142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="F143:I143"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="B49:M49"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B60:M60"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B78:M78"/>
-    <mergeCell ref="B80:M80"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="R13:AC18">
